--- a/data/case1/2/Q1_14.xlsx
+++ b/data/case1/2/Q1_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.28576545058709968</v>
+        <v>0.22510864227085392</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999681892291</v>
+        <v>-0.03736982372008768</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.003999999971249224</v>
+        <v>-0.0039999999632662764</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999481401574</v>
+        <v>-0.007999999934259705</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999699450441</v>
+        <v>-0.0029999999628609331</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999661433066</v>
+        <v>-0.0041143458827566093</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.014746669309818383</v>
+        <v>-0.0099999999101365589</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999251125793</v>
+        <v>0.035311834494863081</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999651516553</v>
+        <v>-0.0019999999638553589</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999654363165</v>
+        <v>-0.0019999999640063493</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.03111880611547857</v>
+        <v>-0.0029999999576348912</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999572233875</v>
+        <v>-0.0034999999546161398</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999538847248</v>
+        <v>-0.0034999999562304041</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999304236624</v>
+        <v>-0.0079999999281659129</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999996485333753</v>
+        <v>-0.00099999997429467413</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999593109941</v>
+        <v>0.029032666440026222</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999584641159</v>
+        <v>-0.0019999999688273817</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999482516202</v>
+        <v>-0.0039999999557558397</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.040991612954071055</v>
+        <v>-0.0039999999727582392</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999635771388</v>
+        <v>-0.0039999999707269751</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999607340797</v>
+        <v>-0.0039999999704223299</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.074958700916194054</v>
+        <v>-0.0039999999701594291</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999645358173</v>
+        <v>-0.0049999999530614403</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999886104902</v>
+        <v>-0.019999999849083849</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999884561248</v>
+        <v>-0.051675097983191698</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999626995617</v>
+        <v>-0.0024999999555728181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999611043933</v>
+        <v>-0.0024999999527568484</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999574409344</v>
+        <v>-0.0019999999431092874</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.023650085066260651</v>
+        <v>-0.0069999999015291081</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999659082981</v>
+        <v>-0.059999999557388328</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999216427966</v>
+        <v>-0.0069999998937451124</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999062880818</v>
+        <v>-0.0099999998740347706</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999361572947</v>
+        <v>-0.0039999999123025987</v>
       </c>
     </row>
   </sheetData>
